--- a/data/trans_bre/P1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>125,27%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>127,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>80,11%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 8,59</t>
+          <t>-0,79; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 14,35</t>
+          <t>5,0; 11,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,4</t>
+          <t>2,16; 8,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,48</t>
+          <t>1,88; 6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 958,09</t>
+          <t>-18,11; 128,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 329,18</t>
+          <t>64,02; 219,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 308,55</t>
+          <t>28,56; 173,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 407,8</t>
+          <t>25,05; 167,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>172,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>139,65%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,34</t>
+          <t>-0,1; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,46</t>
+          <t>4,26; 9,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,58</t>
+          <t>4,26; 9,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,95</t>
+          <t>3,6; 8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 111,44</t>
+          <t>-2,6; 101,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 262,85</t>
+          <t>50,17; 161,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,36; 191,41</t>
+          <t>88,89; 288,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 159,28</t>
+          <t>65,44; 364,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>128,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>172,31%</t>
+          <t>130,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,27</t>
+          <t>2,66; 8,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,96</t>
+          <t>3,99; 10,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,03</t>
+          <t>3,49; 9,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,36</t>
+          <t>-4,33; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 101,33</t>
+          <t>33,4; 185,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,17; 161,4</t>
+          <t>51,49; 240,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,89; 288,95</t>
+          <t>50,25; 249,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 178,25</t>
+          <t>-45,05; 64,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>128,06%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>130,35%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>114,58%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,73</t>
+          <t>1,79; 6,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,56</t>
+          <t>3,78; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,28</t>
+          <t>0,51; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,5</t>
+          <t>3,42; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 185,1</t>
+          <t>27,37; 144,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,49; 240,79</t>
+          <t>43,63; 156,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 249,58</t>
+          <t>5,97; 101,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 90,1</t>
+          <t>52,02; 196,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>107,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>132,37%</t>
+          <t>83,69%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,29</t>
+          <t>2,06; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,2</t>
+          <t>5,72; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,82</t>
+          <t>3,99; 6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,79</t>
+          <t>2,69; 6,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 144,06</t>
+          <t>34,81; 97,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,63; 156,8</t>
+          <t>76,37; 141,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 101,52</t>
+          <t>69,32; 141,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,53; 221,89</t>
+          <t>45,41; 133,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>63,07%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>107,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>99,6%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>82,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 4,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 8,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 6,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 6,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>34,81; 97,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>76,37; 141,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,32; 141,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>53,07; 116,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,58</t>
+          <t>-0,91; 3,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,47</t>
+          <t>5,11; 11,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,34</t>
+          <t>1,9; 8,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,79</t>
+          <t>1,55; 6,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 128,78</t>
+          <t>-18,84; 120,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,02; 219,59</t>
+          <t>60,6; 230,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,56; 173,13</t>
+          <t>23,38; 176,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 167,2</t>
+          <t>20,65; 164,28</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,27</t>
+          <t>-0,4; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,96</t>
+          <t>4,52; 9,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,03</t>
+          <t>4,53; 9,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,75</t>
+          <t>3,82; 8,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 101,33</t>
+          <t>-6,59; 103,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,17; 161,4</t>
+          <t>48,89; 155,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,89; 288,95</t>
+          <t>92,39; 308,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,44; 364,12</t>
+          <t>66,03; 354,73</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,73</t>
+          <t>2,36; 9,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,56</t>
+          <t>4,16; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,28</t>
+          <t>3,56; 9,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 4,42</t>
+          <t>-4,6; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 185,1</t>
+          <t>33,06; 191,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 240,79</t>
+          <t>57,64; 230,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 249,58</t>
+          <t>55,69; 238,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 64,4</t>
+          <t>-46,54; 63,05</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,29</t>
+          <t>1,77; 6,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,2</t>
+          <t>3,82; 9,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,82</t>
+          <t>0,47; 5,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,54</t>
+          <t>3,24; 8,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,37; 144,06</t>
+          <t>24,85; 144,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,63; 156,8</t>
+          <t>42,93; 159,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 101,52</t>
+          <t>4,97; 102,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,02; 196,33</t>
+          <t>53,0; 193,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>1,97; 4,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,69; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>3,97; 6,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,1</t>
+          <t>2,69; 6,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>33,16; 97,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>74,5; 140,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>67,92; 137,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,41; 133,8</t>
+          <t>46,94; 135,45</t>
         </is>
       </c>
     </row>
